--- a/output/StructureDefinition-ch-etoc-condition.xlsx
+++ b/output/StructureDefinition-ch-etoc-condition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="306">
   <si>
     <t>Path</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>CH eToc Condition</t>
@@ -183,6 +180,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -392,17 +392,17 @@
     <t>Condition.clinicalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>active | recurrence | relapse | inactive | remission | resolved</t>
+  </si>
+  <si>
+    <t>The clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>required</t>
@@ -414,20 +414,37 @@
     <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>con-3
+con-4con-5</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 303105007 |Disease phases|</t>
+  </si>
+  <si>
+    <t>PRB-14</t>
+  </si>
+  <si>
+    <t>Observation ACT
+.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
+    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
+  </si>
+  <si>
+    <t>The verification status to support the clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
+The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -436,74 +453,103 @@
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
   </si>
   <si>
+    <t>con-3
+con-5</t>
+  </si>
+  <si>
+    <t>&lt; 410514004 |Finding context value|</t>
+  </si>
+  <si>
+    <t>PRB-13</t>
+  </si>
+  <si>
+    <t>Observation ACT
+.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
+  </si>
+  <si>
+    <t>408729009</t>
+  </si>
+  <si>
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">A category assigned to the condition. In this profile, a health problem of the patient, therefore a 'problem-list-item'.
-</t>
-  </si>
-  <si>
-    <t>In this profile, Condition represents a health problem of the patient. Therefore one of the category value(s) must be problem-list-item.</t>
+    <t>problem-list-item | encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>A category assigned to the condition.</t>
+  </si>
+  <si>
+    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-etoc/ValueSet/chradorder-vs-example</t>
   </si>
   <si>
+    <t>&lt; 404684003 |Clinical finding|</t>
+  </si>
+  <si>
+    <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/condition-severity-uv-ips</t>
+    <t>Subjective severity of condition</t>
+  </si>
+  <si>
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+  </si>
+  <si>
+    <t>Coding of the severity with a terminology is preferred, where possible.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+  </si>
+  <si>
+    <t>&lt; 272141005 |Severities|</t>
+  </si>
+  <si>
+    <t>PRB-26 / ABS-3</t>
+  </si>
+  <si>
+    <t>Can be pre/post-coordinated into value.  Or ./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="severity"].value</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>246112005</t>
   </si>
   <si>
     <t>Condition.code</t>
-  </si>
-  <si>
-    <t>Identification of the condition, problem or diagnosis or recording of "problem absent" or of "problems unknown".</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Discriminated by the bound value set</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>problemGPSCode</t>
   </si>
   <si>
     <t xml:space="preserve">type
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Code for a problem from the SNOMED CT GPS code set</t>
-  </si>
-  <si>
-    <t>Code for a clinical problem that is selected from the SNOMED CT GPS code set.</t>
-  </si>
-  <si>
-    <t>problemGPS</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/core-problem-finding-situation-event-gps-uv-ips</t>
+    <t>Identification of the condition, problem or diagnosis</t>
+  </si>
+  <si>
+    <t>Identification of the condition, problem or diagnosis.</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -533,25 +579,31 @@
     <t>246090004</t>
   </si>
   <si>
-    <t>absentOrUnknownProblem</t>
-  </si>
-  <si>
-    <t>Code for absent problem or for unknown problem</t>
-  </si>
-  <si>
-    <t>Code representing the statement "absent problem" or the statement "problems unknown"</t>
-  </si>
-  <si>
-    <t>Absent problem or unknown problem</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-problems-uv-ips</t>
-  </si>
-  <si>
     <t>Condition.bodySite</t>
   </si>
   <si>
+    <t>Anatomical location, if relevant</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
+  </si>
+  <si>
+    <t>.targetBodySiteCode</t>
+  </si>
+  <si>
+    <t>363698007</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -561,7 +613,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
@@ -584,117 +636,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Condition.subject.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Condition.subject.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Condition.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Condition.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Condition.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Condition.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Condition.encounter</t>
@@ -741,70 +682,47 @@
     <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>PRB-16</t>
+  </si>
+  <si>
+    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>Condition.abatement[x]</t>
+  </si>
+  <si>
+    <t>When in resolution/remission</t>
+  </si>
+  <si>
+    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
+  </si>
+  <si>
+    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con-4
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>PRB-16</t>
-  </si>
-  <si>
-    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>onsetDateTime</t>
+    <t>.effectiveTime.high or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at remission"].value or .inboundRelationship[typeCode=SUBJ]source[classCode=CONC, moodCode=EVN].status=completed</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Condition.recordedDate</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>onsetPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Condition.abatement[x]</t>
-  </si>
-  <si>
-    <t>When in resolution/remission</t>
-  </si>
-  <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
-  </si>
-  <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con-4
-</t>
-  </si>
-  <si>
-    <t>.effectiveTime.high or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at remission"].value or .inboundRelationship[typeCode=SUBJ]source[classCode=CONC, moodCode=EVN].status=completed</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>abatementDateTime</t>
-  </si>
-  <si>
-    <t>abatementPeriod</t>
-  </si>
-  <si>
-    <t>Condition.recordedDate</t>
-  </si>
-  <si>
     <t>Date record was first recorded</t>
   </si>
   <si>
@@ -845,8 +763,7 @@
     <t>Person who asserts this condition</t>
   </si>
   <si>
-    <t>Individual who is making the condition statement.
-Information source.</t>
+    <t>Individual who is making the condition statement.</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
@@ -881,7 +798,25 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Condition.stage.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -923,9 +858,6 @@
     <t>&lt; 254291000 |Staging and scales|</t>
   </si>
   <si>
-    <t>PRB-14</t>
-  </si>
-  <si>
     <t>Condition.stage.assessment</t>
   </si>
   <si>
@@ -1008,9 +940,6 @@
   </si>
   <si>
     <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>&lt; 404684003 |Clinical finding|</t>
   </si>
   <si>
     <t>[code="diagnosis"].value</t>
@@ -1200,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1210,7 +1139,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1219,7 +1148,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1233,10 +1162,10 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="83.0546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.35546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.40625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1246,7 +1175,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.80859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="66.34375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="212.74609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
@@ -1377,7 +1306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>41</v>
       </c>
@@ -1393,22 +1322,22 @@
         <v>44</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1471,19 +1400,19 @@
         <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>42</v>
@@ -1494,7 +1423,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1505,16 +1434,16 @@
         <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>55</v>
@@ -1582,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>42</v>
@@ -1622,16 +1551,16 @@
         <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>61</v>
@@ -1697,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>42</v>
@@ -1737,16 +1666,16 @@
         <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>67</v>
@@ -1814,7 +1743,7 @@
         <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
@@ -1854,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1931,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1971,7 +1900,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>42</v>
@@ -2048,7 +1977,7 @@
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>42</v>
@@ -2328,7 +2257,7 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
@@ -2450,7 +2379,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>111</v>
@@ -2547,7 +2476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>119</v>
       </c>
@@ -2557,19 +2486,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>120</v>
@@ -2637,7 +2566,7 @@
         <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>127</v>
@@ -2646,19 +2575,19 @@
         <v>65</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>42</v>
@@ -2666,7 +2595,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2680,25 +2609,25 @@
         <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2727,63 +2656,63 @@
         <v>124</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2797,7 +2726,7 @@
         <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>42</v>
@@ -2809,13 +2738,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2845,7 +2774,7 @@
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2863,7 +2792,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2872,7 +2801,7 @@
         <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>65</v>
@@ -2881,24 +2810,24 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2909,10 +2838,10 @@
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2924,13 +2853,13 @@
         <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2958,9 +2887,11 @@
       <c r="W15" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2978,16 +2909,16 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>65</v>
@@ -2996,59 +2927,57 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3073,37 +3002,37 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3112,63 +3041,61 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3192,13 +3119,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3216,13 +3143,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3231,62 +3158,60 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3311,13 +3236,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3335,13 +3260,13 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3350,27 +3275,27 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3381,28 +3306,28 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3428,11 +3353,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3450,76 +3377,76 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3567,13 +3494,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3582,19 +3509,19 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
@@ -3602,7 +3529,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3613,7 +3540,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3625,15 +3552,17 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3682,19 +3611,19 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>42</v>
@@ -3706,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3717,18 +3646,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3737,20 +3666,18 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3787,31 +3714,31 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>42</v>
@@ -3820,21 +3747,21 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3842,32 +3769,30 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3916,16 +3841,16 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>65</v>
@@ -3940,10 +3865,10 @@
         <v>42</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>42</v>
@@ -3951,7 +3876,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3962,29 +3887,27 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4009,13 +3932,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4033,13 +3956,13 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
@@ -4054,13 +3977,13 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -4068,7 +3991,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4079,7 +4002,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4088,20 +4011,18 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4150,19 +4071,19 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
@@ -4174,7 +4095,7 @@
         <v>42</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>42</v>
@@ -4185,7 +4106,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4196,7 +4117,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4205,20 +4126,18 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4267,19 +4186,19 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
@@ -4291,7 +4210,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>42</v>
@@ -4302,18 +4221,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4322,19 +4241,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4384,34 +4303,34 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4419,41 +4338,43 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4489,56 +4410,56 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4547,29 +4468,27 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4594,13 +4513,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4618,34 +4537,34 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4653,11 +4572,9 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4666,7 +4583,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4675,20 +4592,18 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4737,34 +4652,34 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -4772,7 +4687,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4783,10 +4698,10 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>42</v>
@@ -4795,17 +4710,15 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4830,38 +4743,40 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>65</v>
@@ -4876,22 +4791,20 @@
         <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4900,10 +4813,10 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4912,16 +4825,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4971,19 +4884,19 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -4995,10 +4908,10 @@
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -5006,11 +4919,9 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5019,7 +4930,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5031,17 +4942,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5090,19 +4999,19 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
@@ -5114,10 +5023,10 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5125,18 +5034,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5145,18 +5054,20 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5205,19 +5116,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5226,13 +5137,13 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AN34" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>42</v>
@@ -5240,39 +5151,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5320,19 +5235,19 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
@@ -5344,18 +5259,18 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5366,25 +5281,25 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5411,13 +5326,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5435,34 +5350,34 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5470,7 +5385,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5490,16 +5405,16 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5550,7 +5465,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5559,10 +5474,10 @@
         <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>269</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
@@ -5577,7 +5492,7 @@
         <v>270</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5585,7 +5500,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5596,7 +5511,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5608,13 +5523,13 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5665,1435 +5580,41 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO50" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO50">
+  <autoFilter ref="A1:AO38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7103,7 +5624,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
